--- a/data_produksi.xlsx
+++ b/data_produksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\website\Dashboard_Sawit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01636AFD-60DB-4F92-A93D-F2D93DE8861B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750714C8-1501-4BE5-A106-0C2969398A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{83D5A4A0-CCFD-49EF-AE72-E045BFE56B8D}"/>
   </bookViews>
@@ -51681,7 +51681,7 @@
       <selection activeCell="F10" sqref="F10"/>
       <selection pane="topRight" activeCell="F10" sqref="F10"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
